--- a/result/result_syn5.xlsx
+++ b/result/result_syn5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\bot\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3508121C-8E12-41C8-9BFD-A75F0B54A7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D89F2-E6EE-47F7-A08F-881CABC8FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>eATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>GAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours-HED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No ljt-HED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No ljf-HED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semi-homo-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semi-homo-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twitter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +177,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,16 +215,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,49 +508,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="13" width="8.796875" style="1"/>
-    <col min="14" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="19" width="8.796875" style="1"/>
+    <col min="20" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -546,8 +602,26 @@
       <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -587,8 +661,26 @@
       <c r="M3" s="1">
         <v>1.0510999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N3" s="1">
+        <v>1.0492999999999999</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.0522</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.98329999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -628,8 +720,26 @@
       <c r="M4" s="1">
         <v>0.99380000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N4" s="1">
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.9577</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.8115</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -669,8 +779,26 @@
       <c r="M5" s="1">
         <v>0.35139999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N5" s="1">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.4219</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.49309999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -710,8 +838,26 @@
       <c r="M6" s="1">
         <v>0.28810000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N6" s="1">
+        <v>0.3952</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.2155</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.33189999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -751,49 +897,85 @@
       <c r="M7" s="1">
         <v>0.18110000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="N7" s="1">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.1893</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.1249</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.21079999999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.1787</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.22450000000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.1414</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.18229999999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0.16470000000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.1943</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>0.28370000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>0.36409999999999998</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>0.1183</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>0.21879999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N8" s="4">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.2056</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.24579999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -833,132 +1015,306 @@
       <c r="M9" s="6">
         <v>0.1293</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.1193</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.1002</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="L10" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.1709</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.159</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.1822</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.1147</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.16550000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="8">
         <v>0.1028</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="8">
         <v>0.18440000000000001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="8">
         <v>0.12130000000000001</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="8">
         <v>0.20319999999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="8">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="8">
         <v>0.21129999999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="8">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="8">
         <v>0.18229999999999999</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="8">
         <v>0.12870000000000001</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="8">
         <v>0.22750000000000001</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="8">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="8">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.1138</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.20910000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.2165</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.1457</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.1696</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.18440000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="8">
         <v>0.222</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="8">
         <v>0.29470000000000002</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="8">
         <v>0.22450000000000001</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="8">
         <v>0.24510000000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F13" s="8">
         <v>0.158</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G13" s="8">
         <v>0.23449999999999999</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H13" s="8">
         <v>0.1482</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I13" s="8">
         <v>0.2147</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J13" s="8">
         <v>0.2661</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K13" s="8">
         <v>0.33069999999999999</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L13" s="8">
         <v>0.15429999999999999</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M13" s="8">
         <v>0.21959999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.2487</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2311</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.217</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.1646</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.25779999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B15" s="1">
         <v>0.20580000000000001</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C15" s="1">
         <v>0.26860000000000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D15" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E15" s="1">
         <v>0.34520000000000001</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F15" s="1">
         <v>0.24229999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G15" s="1">
         <v>0.31740000000000002</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H15" s="1">
         <v>0.28899999999999998</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I15" s="1">
         <v>0.30430000000000001</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J15" s="1">
         <v>0.29320000000000002</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K15" s="1">
         <v>0.37569999999999998</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L15" s="1">
         <v>0.26919999999999999</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M15" s="1">
         <v>0.34770000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
